--- a/EJ4/Integrador/Mediciones/Mediciones Integrador Compensado.xlsx
+++ b/EJ4/Integrador/Mediciones/Mediciones Integrador Compensado.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>Nº</t>
   </si>
@@ -860,17 +860,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2006,7 +2006,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2526,7 +2525,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5594,7 +5592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -5630,10 +5628,10 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47"/>
+      <c r="H1" s="49"/>
       <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
@@ -5657,8 +5655,8 @@
       <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
@@ -5680,8 +5678,8 @@
       <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5702,11 +5700,9 @@
       <c r="E4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
@@ -5730,8 +5726,8 @@
       <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
       <c r="J5" s="6" t="s">
         <v>8</v>
       </c>
@@ -5755,8 +5751,8 @@
       <c r="F6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
       <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
@@ -6011,8 +6007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6093,7 +6089,7 @@
         <v>160</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" ref="E4:E21" si="0">IF(ISBLANK(C4), , C4/A4)</f>
+        <f t="shared" ref="E4:E20" si="0">IF(ISBLANK(C4), , C4/A4)</f>
         <v>95.155709342560556</v>
       </c>
       <c r="F4" s="26">
@@ -6571,7 +6567,7 @@
       <c r="C35" s="25"/>
       <c r="D35" s="26"/>
       <c r="E35" s="11">
-        <f t="shared" ref="E30:E40" si="2">IF(ISBLANK(C35), , C35/A35)</f>
+        <f t="shared" ref="E35:E40" si="2">IF(ISBLANK(C35), , C35/A35)</f>
         <v>0</v>
       </c>
       <c r="F35" s="26">

--- a/EJ4/Integrador/Mediciones/Mediciones Integrador Compensado.xlsx
+++ b/EJ4/Integrador/Mediciones/Mediciones Integrador Compensado.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -1574,7 +1574,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>157</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1707,7 +1707,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>157</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>160</c:v>
@@ -2006,6 +2006,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2177,19 +2178,19 @@
                   <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>500000</c:v>
+                  <c:v>225000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1000000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>250000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>225000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2204,34 +2205,34 @@
                   <c:v>5478.2608695652179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5323.9436619718317</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5406.9767441860458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5206.8965517241377</c:v>
+                  <c:v>5392.8571428571431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5283.0188679245284</c:v>
+                  <c:v>5419.3548387096771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5198.0198019801992</c:v>
+                  <c:v>5431.0344827586205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5314.5695364238409</c:v>
+                  <c:v>5404.0404040404037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5247.5247524752485</c:v>
+                  <c:v>5371.6216216216226</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5226.0638297872338</c:v>
+                  <c:v>5398.3516483516487</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5280</c:v>
+                  <c:v>5424.6575342465758</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5360</c:v>
+                  <c:v>5476.839237057221</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5403.2258064516127</c:v>
@@ -2252,19 +2253,19 @@
                   <c:v>5286.2068965517246</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4647.8873239436625</c:v>
+                  <c:v>5229.4520547945203</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3401.1627906976742</c:v>
+                  <c:v>5173.4693877551026</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5087.8378378378375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5173.4693877551026</c:v>
+                  <c:v>4647.8873239436625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5229.4520547945203</c:v>
+                  <c:v>3401.1627906976742</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -2525,6 +2526,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2696,19 +2698,19 @@
                   <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>500000</c:v>
+                  <c:v>225000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1000000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>250000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>225000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,7 +2722,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>-30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2771,19 +2773,19 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-30</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-41</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-15</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-10</c:v>
+                  <c:v>-41</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -6007,8 +6009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6064,7 +6066,7 @@
         <v>27.7</v>
       </c>
       <c r="D3" s="26">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E3" s="11">
         <f>IF(ISBLANK(C3), , C3/A3)</f>
@@ -6829,8 +6831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6928,8 +6930,7 @@
         <v>5478.2608695652179</v>
       </c>
       <c r="J3" s="41">
-        <f xml:space="preserve"> D3-G3</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -6948,21 +6949,21 @@
         <v>15000</v>
       </c>
       <c r="F4" s="39">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="G4" s="40">
         <v>0</v>
       </c>
       <c r="H4" s="37">
-        <f t="shared" ref="H4:H40" si="0">IF(E4 = 0,,F4/E4)</f>
-        <v>4.733333333333333E-5</v>
+        <f>IF(E4 = 0,,F4/E4)</f>
+        <v>4.6666666666666665E-5</v>
       </c>
       <c r="I4" s="37">
-        <f t="shared" ref="I4:I40" si="1">IF(H4=0,,C4/H4)</f>
-        <v>5323.9436619718317</v>
+        <f>IF(H4=0,,C4/H4)</f>
+        <v>5400</v>
       </c>
       <c r="J4" s="41">
-        <f t="shared" ref="J4:J40" si="2" xml:space="preserve"> D4-G4</f>
+        <f xml:space="preserve"> D4-G4</f>
         <v>0</v>
       </c>
     </row>
@@ -6978,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="38">
-        <f t="shared" ref="E5:E40" si="3">E4</f>
+        <f>E4</f>
         <v>15000</v>
       </c>
       <c r="F5" s="39">
@@ -6988,15 +6989,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="37">
-        <f t="shared" si="0"/>
+        <f>IF(E5 = 0,,F5/E5)</f>
         <v>5.7333333333333336E-5</v>
       </c>
       <c r="I5" s="37">
-        <f t="shared" si="1"/>
+        <f>IF(H5=0,,C5/H5)</f>
         <v>5406.9767441860458</v>
       </c>
       <c r="J5" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D5-G5</f>
         <v>0</v>
       </c>
     </row>
@@ -7012,25 +7013,25 @@
         <v>0</v>
       </c>
       <c r="E6" s="38">
-        <f t="shared" si="3"/>
+        <f>E5</f>
         <v>15000</v>
       </c>
       <c r="F6" s="39">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="G6" s="40">
         <v>0</v>
       </c>
       <c r="H6" s="37">
-        <f t="shared" si="0"/>
-        <v>5.8E-5</v>
+        <f>IF(E6 = 0,,F6/E6)</f>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="I6" s="37">
-        <f t="shared" si="1"/>
-        <v>5206.8965517241377</v>
+        <f>IF(H6=0,,C6/H6)</f>
+        <v>5392.8571428571431</v>
       </c>
       <c r="J6" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D6-G6</f>
         <v>0</v>
       </c>
     </row>
@@ -7046,25 +7047,25 @@
         <v>0</v>
       </c>
       <c r="E7" s="38">
-        <f t="shared" si="3"/>
+        <f>E6</f>
         <v>15000</v>
       </c>
       <c r="F7" s="39">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="G7" s="40">
         <v>0</v>
       </c>
       <c r="H7" s="37">
-        <f t="shared" si="0"/>
-        <v>1.06E-4</v>
+        <f>IF(E7 = 0,,F7/E7)</f>
+        <v>1.0333333333333334E-4</v>
       </c>
       <c r="I7" s="37">
-        <f t="shared" si="1"/>
-        <v>5283.0188679245284</v>
+        <f>IF(H7=0,,C7/H7)</f>
+        <v>5419.3548387096771</v>
       </c>
       <c r="J7" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D7-G7</f>
         <v>0</v>
       </c>
     </row>
@@ -7080,25 +7081,25 @@
         <v>0</v>
       </c>
       <c r="E8" s="38">
-        <f t="shared" si="3"/>
+        <f>E7</f>
         <v>15000</v>
       </c>
       <c r="F8" s="39">
-        <v>3.03</v>
+        <v>2.9</v>
       </c>
       <c r="G8" s="40">
         <v>0</v>
       </c>
       <c r="H8" s="37">
-        <f t="shared" si="0"/>
-        <v>2.0199999999999998E-4</v>
+        <f>IF(E8 = 0,,F8/E8)</f>
+        <v>1.9333333333333333E-4</v>
       </c>
       <c r="I8" s="37">
-        <f t="shared" si="1"/>
-        <v>5198.0198019801992</v>
+        <f>IF(H8=0,,C8/H8)</f>
+        <v>5431.0344827586205</v>
       </c>
       <c r="J8" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D8-G8</f>
         <v>0</v>
       </c>
     </row>
@@ -7114,25 +7115,25 @@
         <v>0</v>
       </c>
       <c r="E9" s="38">
-        <f t="shared" si="3"/>
+        <f>E8</f>
         <v>15000</v>
       </c>
       <c r="F9" s="39">
-        <v>3.02</v>
+        <v>2.97</v>
       </c>
       <c r="G9" s="40">
         <v>0</v>
       </c>
       <c r="H9" s="37">
-        <f t="shared" si="0"/>
-        <v>2.0133333333333334E-4</v>
+        <f>IF(E9 = 0,,F9/E9)</f>
+        <v>1.9800000000000002E-4</v>
       </c>
       <c r="I9" s="37">
-        <f t="shared" si="1"/>
-        <v>5314.5695364238409</v>
+        <f>IF(H9=0,,C9/H9)</f>
+        <v>5404.0404040404037</v>
       </c>
       <c r="J9" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D9-G9</f>
         <v>0</v>
       </c>
     </row>
@@ -7148,25 +7149,25 @@
         <v>0</v>
       </c>
       <c r="E10" s="38">
-        <f t="shared" si="3"/>
+        <f>E9</f>
         <v>15000</v>
       </c>
       <c r="F10" s="39">
-        <v>3.03</v>
+        <v>2.96</v>
       </c>
       <c r="G10" s="40">
         <v>0</v>
       </c>
       <c r="H10" s="37">
-        <f t="shared" si="0"/>
-        <v>2.0199999999999998E-4</v>
+        <f>IF(E10 = 0,,F10/E10)</f>
+        <v>1.9733333333333332E-4</v>
       </c>
       <c r="I10" s="37">
-        <f t="shared" si="1"/>
-        <v>5247.5247524752485</v>
+        <f>IF(H10=0,,C10/H10)</f>
+        <v>5371.6216216216226</v>
       </c>
       <c r="J10" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D10-G10</f>
         <v>0</v>
       </c>
     </row>
@@ -7182,25 +7183,25 @@
         <v>0</v>
       </c>
       <c r="E11" s="38">
-        <f t="shared" si="3"/>
+        <f>E10</f>
         <v>15000</v>
       </c>
       <c r="F11" s="39">
-        <v>3.76</v>
+        <v>3.64</v>
       </c>
       <c r="G11" s="40">
         <v>0</v>
       </c>
       <c r="H11" s="37">
-        <f t="shared" si="0"/>
-        <v>2.5066666666666667E-4</v>
+        <f>IF(E11 = 0,,F11/E11)</f>
+        <v>2.4266666666666667E-4</v>
       </c>
       <c r="I11" s="37">
-        <f t="shared" si="1"/>
-        <v>5226.0638297872338</v>
+        <f>IF(H11=0,,C11/H11)</f>
+        <v>5398.3516483516487</v>
       </c>
       <c r="J11" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D11-G11</f>
         <v>0</v>
       </c>
     </row>
@@ -7216,25 +7217,25 @@
         <v>0</v>
       </c>
       <c r="E12" s="38">
-        <f t="shared" si="3"/>
+        <f>E11</f>
         <v>15000</v>
       </c>
       <c r="F12" s="39">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="G12" s="40">
         <v>0</v>
       </c>
       <c r="H12" s="37">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f>IF(E12 = 0,,F12/E12)</f>
+        <v>2.4333333333333333E-4</v>
       </c>
       <c r="I12" s="37">
-        <f t="shared" si="1"/>
-        <v>5280</v>
+        <f>IF(H12=0,,C12/H12)</f>
+        <v>5424.6575342465758</v>
       </c>
       <c r="J12" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D12-G12</f>
         <v>0</v>
       </c>
     </row>
@@ -7250,25 +7251,25 @@
         <v>0</v>
       </c>
       <c r="E13" s="38">
-        <f t="shared" si="3"/>
+        <f>E12</f>
         <v>15000</v>
       </c>
       <c r="F13" s="39">
-        <v>3.75</v>
+        <v>3.67</v>
       </c>
       <c r="G13" s="40">
         <v>0</v>
       </c>
       <c r="H13" s="37">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f>IF(E13 = 0,,F13/E13)</f>
+        <v>2.4466666666666669E-4</v>
       </c>
       <c r="I13" s="37">
-        <f t="shared" si="1"/>
-        <v>5360</v>
+        <f>IF(H13=0,,C13/H13)</f>
+        <v>5476.839237057221</v>
       </c>
       <c r="J13" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D13-G13</f>
         <v>0</v>
       </c>
     </row>
@@ -7284,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="38">
-        <f t="shared" si="3"/>
+        <f>E13</f>
         <v>15000</v>
       </c>
       <c r="F14" s="39">
@@ -7294,15 +7295,15 @@
         <v>0</v>
       </c>
       <c r="H14" s="37">
-        <f t="shared" si="0"/>
+        <f>IF(E14 = 0,,F14/E14)</f>
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="I14" s="37">
-        <f t="shared" si="1"/>
+        <f>IF(H14=0,,C14/H14)</f>
         <v>5403.2258064516127</v>
       </c>
       <c r="J14" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D14-G14</f>
         <v>0</v>
       </c>
     </row>
@@ -7318,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="38">
-        <f t="shared" si="3"/>
+        <f>E14</f>
         <v>15000</v>
       </c>
       <c r="F15" s="39">
@@ -7328,15 +7329,15 @@
         <v>0</v>
       </c>
       <c r="H15" s="37">
-        <f t="shared" si="0"/>
+        <f>IF(E15 = 0,,F15/E15)</f>
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="I15" s="37">
-        <f t="shared" si="1"/>
+        <f>IF(H15=0,,C15/H15)</f>
         <v>5443.5483870967746</v>
       </c>
       <c r="J15" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D15-G15</f>
         <v>0</v>
       </c>
     </row>
@@ -7352,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="38">
-        <f t="shared" si="3"/>
+        <f>E15</f>
         <v>15000</v>
       </c>
       <c r="F16" s="39">
@@ -7362,15 +7363,15 @@
         <v>0</v>
       </c>
       <c r="H16" s="37">
-        <f t="shared" si="0"/>
+        <f>IF(E16 = 0,,F16/E16)</f>
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="I16" s="37">
-        <f t="shared" si="1"/>
+        <f>IF(H16=0,,C16/H16)</f>
         <v>5443.5483870967746</v>
       </c>
       <c r="J16" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D16-G16</f>
         <v>0</v>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="38">
-        <f t="shared" si="3"/>
+        <f>E16</f>
         <v>15000</v>
       </c>
       <c r="F17" s="39">
@@ -7396,15 +7397,15 @@
         <v>0</v>
       </c>
       <c r="H17" s="37">
-        <f t="shared" si="0"/>
+        <f>IF(E17 = 0,,F17/E17)</f>
         <v>6.333333333333333E-4</v>
       </c>
       <c r="I17" s="37">
-        <f t="shared" si="1"/>
+        <f>IF(H17=0,,C17/H17)</f>
         <v>5431.5789473684217</v>
       </c>
       <c r="J17" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D17-G17</f>
         <v>0</v>
       </c>
     </row>
@@ -7420,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="38">
-        <f t="shared" si="3"/>
+        <f>E17</f>
         <v>15000</v>
       </c>
       <c r="F18" s="39">
@@ -7430,15 +7431,15 @@
         <v>0</v>
       </c>
       <c r="H18" s="37">
-        <f t="shared" si="0"/>
+        <f>IF(E18 = 0,,F18/E18)</f>
         <v>8.7333333333333327E-4</v>
       </c>
       <c r="I18" s="37">
-        <f t="shared" si="1"/>
+        <f>IF(H18=0,,C18/H18)</f>
         <v>5381.6793893129779</v>
       </c>
       <c r="J18" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D18-G18</f>
         <v>0</v>
       </c>
     </row>
@@ -7454,7 +7455,7 @@
         <v>-5</v>
       </c>
       <c r="E19" s="38">
-        <f t="shared" si="3"/>
+        <f>E18</f>
         <v>15000</v>
       </c>
       <c r="F19" s="39">
@@ -7464,84 +7465,84 @@
         <v>0</v>
       </c>
       <c r="H19" s="37">
-        <f t="shared" si="0"/>
+        <f>IF(E19 = 0,,F19/E19)</f>
         <v>9.6666666666666667E-4</v>
       </c>
       <c r="I19" s="37">
-        <f t="shared" si="1"/>
+        <f>IF(H19=0,,C19/H19)</f>
         <v>5286.2068965517246</v>
       </c>
       <c r="J19" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D19-G19</f>
         <v>-5</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
-        <v>500000</v>
+        <v>225000</v>
       </c>
       <c r="C20" s="44">
-        <v>4.4000000000000004</v>
+        <v>5.09</v>
       </c>
       <c r="D20" s="39">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="E20" s="38">
-        <f t="shared" si="3"/>
+        <f>E19</f>
         <v>15000</v>
       </c>
       <c r="F20" s="39">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="G20" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H20" s="37">
-        <f t="shared" si="0"/>
-        <v>9.4666666666666662E-4</v>
+        <f>IF(E20 = 0,,F20/E20)</f>
+        <v>9.7333333333333332E-4</v>
       </c>
       <c r="I20" s="37">
-        <f t="shared" si="1"/>
-        <v>4647.8873239436625</v>
+        <f>IF(H20=0,,C20/H20)</f>
+        <v>5229.4520547945203</v>
       </c>
       <c r="J20" s="41">
-        <f t="shared" si="2"/>
-        <v>-30</v>
+        <f xml:space="preserve"> D20-G20</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
-        <v>1000000</v>
+        <v>250000</v>
       </c>
       <c r="C21" s="44">
-        <v>3.9</v>
+        <v>5.07</v>
       </c>
       <c r="D21" s="39">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="E21" s="38">
-        <f t="shared" si="3"/>
+        <f>E20</f>
         <v>15000</v>
       </c>
       <c r="F21" s="39">
-        <v>17.2</v>
+        <v>14.7</v>
       </c>
       <c r="G21" s="40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H21" s="37">
-        <f t="shared" si="0"/>
-        <v>1.1466666666666667E-3</v>
+        <f>IF(E21 = 0,,F21/E21)</f>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="I21" s="37">
-        <f t="shared" si="1"/>
-        <v>3401.1627906976742</v>
+        <f>IF(H21=0,,C21/H21)</f>
+        <v>5173.4693877551026</v>
       </c>
       <c r="J21" s="41">
-        <f t="shared" si="2"/>
-        <v>-41</v>
+        <f xml:space="preserve"> D21-G21</f>
+        <v>-15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7556,7 +7557,7 @@
         <v>-15</v>
       </c>
       <c r="E22" s="38">
-        <f t="shared" si="3"/>
+        <f>E21</f>
         <v>15000</v>
       </c>
       <c r="F22" s="39">
@@ -7566,84 +7567,83 @@
         <v>5</v>
       </c>
       <c r="H22" s="37">
-        <f t="shared" si="0"/>
+        <f>IF(E22 = 0,,F22/E22)</f>
         <v>9.8666666666666672E-4</v>
       </c>
       <c r="I22" s="37">
-        <f t="shared" si="1"/>
+        <f>IF(H22=0,,C22/H22)</f>
         <v>5087.8378378378375</v>
       </c>
       <c r="J22" s="41">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> D22-G22</f>
         <v>-20</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="45">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="C23" s="44">
-        <v>5.07</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D23" s="39">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E23" s="38">
-        <f t="shared" si="3"/>
+        <f>E22</f>
         <v>15000</v>
       </c>
       <c r="F23" s="39">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="G23" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H23" s="37">
-        <f t="shared" si="0"/>
-        <v>9.7999999999999997E-4</v>
+        <f>IF(E23 = 0,,F23/E23)</f>
+        <v>9.4666666666666662E-4</v>
       </c>
       <c r="I23" s="37">
-        <f t="shared" si="1"/>
-        <v>5173.4693877551026</v>
+        <f>IF(H23=0,,C23/H23)</f>
+        <v>4647.8873239436625</v>
       </c>
       <c r="J23" s="41">
-        <f t="shared" si="2"/>
-        <v>-15</v>
+        <f xml:space="preserve"> D23-G23</f>
+        <v>-30</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="45">
-        <v>225000</v>
+        <v>1000000</v>
       </c>
       <c r="C24" s="44">
-        <v>5.09</v>
+        <v>3.9</v>
       </c>
       <c r="D24" s="39">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="E24" s="38">
-        <f t="shared" si="3"/>
         <v>15000</v>
       </c>
       <c r="F24" s="39">
-        <v>14.6</v>
+        <v>17.2</v>
       </c>
       <c r="G24" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="37">
-        <f t="shared" si="0"/>
-        <v>9.7333333333333332E-4</v>
+        <f>IF(E24 = 0,,F24/E24)</f>
+        <v>1.1466666666666667E-3</v>
       </c>
       <c r="I24" s="37">
-        <f t="shared" si="1"/>
-        <v>5229.4520547945203</v>
+        <f>IF(H24=0,,C24/H24)</f>
+        <v>3401.1627906976742</v>
       </c>
       <c r="J24" s="41">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+        <f xml:space="preserve"> D24-G24</f>
+        <v>-41</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -7652,21 +7652,21 @@
       <c r="C25" s="44"/>
       <c r="D25" s="39"/>
       <c r="E25" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E5:E40" si="0">E24</f>
         <v>15000</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="40"/>
       <c r="H25" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H4:H40" si="1">IF(E25 = 0,,F25/E25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I4:I40" si="2">IF(H25=0,,C25/H25)</f>
         <v>0</v>
       </c>
       <c r="J25" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J4:J40" si="3" xml:space="preserve"> D25-G25</f>
         <v>0</v>
       </c>
     </row>
@@ -7676,21 +7676,21 @@
       <c r="C26" s="44"/>
       <c r="D26" s="39"/>
       <c r="E26" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="40"/>
       <c r="H26" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J26" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7700,21 +7700,21 @@
       <c r="C27" s="44"/>
       <c r="D27" s="39"/>
       <c r="E27" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="40"/>
       <c r="H27" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7724,21 +7724,21 @@
       <c r="C28" s="44"/>
       <c r="D28" s="39"/>
       <c r="E28" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="40"/>
       <c r="H28" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J28" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7748,21 +7748,21 @@
       <c r="C29" s="44"/>
       <c r="D29" s="39"/>
       <c r="E29" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="40"/>
       <c r="H29" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J29" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7772,21 +7772,21 @@
       <c r="C30" s="44"/>
       <c r="D30" s="39"/>
       <c r="E30" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="40"/>
       <c r="H30" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J30" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7796,21 +7796,21 @@
       <c r="C31" s="44"/>
       <c r="D31" s="39"/>
       <c r="E31" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="40"/>
       <c r="H31" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J31" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7820,21 +7820,21 @@
       <c r="C32" s="44"/>
       <c r="D32" s="39"/>
       <c r="E32" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
       <c r="H32" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J32" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7844,21 +7844,21 @@
       <c r="C33" s="44"/>
       <c r="D33" s="39"/>
       <c r="E33" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="40"/>
       <c r="H33" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7868,21 +7868,21 @@
       <c r="C34" s="44"/>
       <c r="D34" s="39"/>
       <c r="E34" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="40"/>
       <c r="H34" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J34" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7892,7 +7892,7 @@
       <c r="C35" s="44"/>
       <c r="D35" s="39"/>
       <c r="E35" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F35" s="39"/>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7922,15 +7922,15 @@
       <c r="F36" s="39"/>
       <c r="G36" s="40"/>
       <c r="H36" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7940,21 +7940,21 @@
       <c r="C37" s="44"/>
       <c r="D37" s="39"/>
       <c r="E37" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
       <c r="H37" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J37" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7964,21 +7964,21 @@
       <c r="C38" s="44"/>
       <c r="D38" s="39"/>
       <c r="E38" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="40"/>
       <c r="H38" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J38" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7988,21 +7988,21 @@
       <c r="C39" s="44"/>
       <c r="D39" s="39"/>
       <c r="E39" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="40"/>
       <c r="H39" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J39" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8012,25 +8012,28 @@
       <c r="C40" s="44"/>
       <c r="D40" s="39"/>
       <c r="E40" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F40" s="39"/>
       <c r="G40" s="40"/>
       <c r="H40" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B3:J24">
+    <sortCondition ref="B3:B24"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
